--- a/medicine/Enfance/Germaine_Pelletan/Germaine_Pelletan.xlsx
+++ b/medicine/Enfance/Germaine_Pelletan/Germaine_Pelletan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Germaine Pelletan, née le 11 mars 1903 à Saint-Georges-de-Didonne et morte le 16 mars 1989 à Meschers-sur-Gironde est une écrivaine française, issue d'une famille de notables protestants. Elle est l'épouse de l'écrivain Robert Chamboulan. 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après la mort de son père, victime des gaz durant la Première Guerre mondiale, elle dut renoncer à ses projets de professorat de peinture et devint à Paris secrétaire de Paul Reboux, romancier à succès. Elle épousa dans cette ville Robert Chamboulan, alors flûtiste aux Concerts Colonne. Après la naissance de leur première fille, Gisèle, en 1926, ils partirent pour 7 ans au Liban, où elle fit du journalisme avec son mari, partant souvent à cheval dans la montagne pour faire des reportages sur la vie des paysans libanais, et glanant des informations qu'elle put utiliser par la suite dans ses romans.
 À leur retour en France en 1933, le couple s'installa à Chatou, et se créa de nouveau une situation dans l'écriture sous toutes ses formes. Germaine travaillait sous le nom de Gilles Hersay, comme son mari, et  était une romancière prolifique, qui écrivait des romans pour la jeunesse (notamment pour les collections Pierrot et Lisette, ou la Bibliothèque Pervenche) et des romans policiers (La Marque des Loups-Garous par exemple). Elle écrivit de nombreux  romans sentimentaux dans la collection Fama et, avec son mari, Les révoltés, qui eut un prix littéraire.
